--- a/OriginTable/CardEffect.xlsx
+++ b/OriginTable/CardEffect.xlsx
@@ -18,13 +18,52 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>凤梨:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+枚举列，定义该效果的生效时刻：
+1. 卡牌生效时
+2. 卡牌被放入骰子槽时
+3. 卡牌在骰子槽中时
+4. 非卡牌效果</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>EffectID</t>
   </si>
   <si>
     <t>TypeID</t>
+  </si>
+  <si>
+    <t>EffectTime</t>
   </si>
   <si>
     <t>Para1</t>
@@ -49,7 +88,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +252,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -671,7 +721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,23 +734,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1072,87 +1107,98 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" ht="15" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4"/>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="str">
+      <c r="F3" s="2" t="str">
         <f>VLOOKUP(B3,[1]Sheet1!$A:$C,3,0)</f>
         <v>san值改变（para1）</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>-20</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="9" t="str">
+      <c r="F4" s="2" t="str">
         <f>VLOOKUP(B4,[1]Sheet1!$A:$C,3,0)</f>
         <v>san值改变（para1）</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1160,15 +1206,17 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>-10</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="9" t="str">
+      <c r="F5" s="2" t="str">
         <f>VLOOKUP(B5,[1]Sheet1!$A:$C,3,0)</f>
         <v>警戒度改变（para1）</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1176,15 +1224,17 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="9" t="str">
+      <c r="F6" s="2" t="str">
         <f>VLOOKUP(B6,[1]Sheet1!$A:$C,3,0)</f>
         <v>警戒度改变（para1）</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1192,14 +1242,17 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="9" t="str">
+      <c r="F7" s="2" t="str">
         <f>VLOOKUP(B7,[1]Sheet1!$A:$C,3,0)</f>
         <v>san值改变（para1）</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1207,9 +1260,12 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="9" t="str">
+      <c r="F8" s="2" t="str">
         <f>VLOOKUP(B8,[1]Sheet1!$A:$C,3,0)</f>
         <v>警戒度改变（para1）</v>
       </c>
@@ -1218,6 +1274,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/OriginTable/CardEffect.xlsx
+++ b/OriginTable/CardEffect.xlsx
@@ -7,12 +7,10 @@
     <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="CardEffect" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
@@ -55,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>EffectID</t>
   </si>
@@ -72,7 +70,25 @@
     <t>Para2</t>
   </si>
   <si>
-    <t>##备注</t>
+    <t>##Notes</t>
+  </si>
+  <si>
+    <t>效果ID</t>
+  </si>
+  <si>
+    <t>效果类型ID</t>
+  </si>
+  <si>
+    <t>生效时刻</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>int</t>
@@ -802,9 +818,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
+      <sheetName val="EffectType"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -816,42 +830,51 @@
             <v>Const_string</v>
           </cell>
           <cell r="C1" t="str">
-            <v>##备注</v>
+            <v>##Notes</v>
           </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>int</v>
+            <v>效果类型ID</v>
           </cell>
           <cell r="B2" t="str">
-            <v>string</v>
+            <v>常量名</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>备注</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="A3">
-            <v>1</v>
+          <cell r="A3" t="str">
+            <v>int</v>
           </cell>
           <cell r="B3" t="str">
-            <v>San_Change</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>san值改变（para1）</v>
+            <v>string</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
+            <v>1</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>San_Change</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>san值改变（para1）</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
             <v>2</v>
           </cell>
-          <cell r="B4" t="str">
+          <cell r="B5" t="str">
             <v>Alert_Change</v>
           </cell>
-          <cell r="C4" t="str">
+          <cell r="C5" t="str">
             <v>警戒度改变（para1）</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1107,19 +1130,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
+    <col min="4" max="5" width="6.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.75" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
@@ -1144,45 +1166,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="15" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <f>VLOOKUP(B3,[1]Sheet1!$A:$C,3,0)</f>
-        <v>san值改变（para1）</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1191,34 +1215,34 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>-20</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f>VLOOKUP(B4,[1]Sheet1!$A:$C,3,0)</f>
+        <f>VLOOKUP(B4,[1]EffectType!$A:$C,3,0)</f>
         <v>san值改变（para1）</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>VLOOKUP(B5,[1]Sheet1!$A:$C,3,0)</f>
-        <v>警戒度改变（para1）</v>
+        <f>VLOOKUP(B5,[1]EffectType!$A:$C,3,0)</f>
+        <v>san值改变（para1）</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1227,37 +1251,37 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>VLOOKUP(B6,[1]Sheet1!$A:$C,3,0)</f>
+        <f>VLOOKUP(B6,[1]EffectType!$A:$C,3,0)</f>
         <v>警戒度改变（para1）</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f>VLOOKUP(B7,[1]Sheet1!$A:$C,3,0)</f>
-        <v>san值改变（para1）</v>
+        <f>VLOOKUP(B7,[1]EffectType!$A:$C,3,0)</f>
+        <v>警戒度改变（para1）</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1266,7 +1290,25 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f>VLOOKUP(B8,[1]Sheet1!$A:$C,3,0)</f>
+        <f>VLOOKUP(B8,[1]EffectType!$A:$C,3,0)</f>
+        <v>san值改变（para1）</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>VLOOKUP(B9,[1]EffectType!$A:$C,3,0)</f>
         <v>警戒度改变（para1）</v>
       </c>
     </row>
@@ -1276,38 +1318,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/OriginTable/CardEffect.xlsx
+++ b/OriginTable/CardEffect.xlsx
@@ -872,6 +872,361 @@
           </cell>
           <cell r="C5" t="str">
             <v>警戒度改变（para1）</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>3</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>State_Dream</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>持有状态（para1）时，安抚值不会在回合结束时消失</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>4</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>State_Mania</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>持有状态（para1）时，(para2）改变值绝对值加上当回合骰子点数</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>5</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>PeaceValue_Change</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>安抚值改变（para1）</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>6</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>DiceCard_SanChange</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>骰位槽中每有一张卡牌（para1），拥有该效果的卡牌造成的san值点数（绝对值）改变下降（para2）</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>7</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>DiceCard_PeaceValueChange</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>骰位槽中每有一张卡牌（para1），拥有该效果的卡牌产生的安抚值点数（绝对值）改变下降（para2）</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>8</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Create_State</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>让猫咪产生（para1）*骰子点数的状态（para2）层数</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>9</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>DiceCard_StateChange</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>骰位槽中每有一张卡牌（para1），拥有该效果的卡牌产生的状态（para2）层数改变（para3）</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>10</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>DiceCard_StateDown</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>骰位槽中每有一张卡牌（para1），拥有该效果的卡牌产生的状态（para2）层数改变（para3）</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>11</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>DiceCard_Count_StateCreate</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>骰位槽中若存在（para1）张以上卡牌（para2）,则让猫咪产生卡牌（para2）张数的*骰子点数层的状态（para3）</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>12</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>San_MultipleChange</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>san值改变（para1）次，每次改变（para2）点</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>13</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>DicePos_State</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>该卡牌在手中时，猫咪每有（para1）层（para2）状态，该卡片的骰位降低（para3）</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>14</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>San_Dice_MultipleChange</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>san值改变骰子点数次，每次改变（para1）点</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>15</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>DiceLess_State</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>若骰子点数小于猫咪状态（para1）层数，该状态+骰子点数层</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>16</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>DiceMore_State_SanChange</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>若骰子点数大于猫咪状态（para1）层数，san值改变（para2）*骰子点数次，每次改变（para3）</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>17</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>CardIn_StateDown_Draw</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>该卡牌放入骰子槽时，去除猫咪最多（para1）层状态（para2），抽取下降层数的卡牌</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>18</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>CardOut_Forbidden</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>卡牌放入骰子槽后无法被撤出</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>19</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>DiceSpace_Down</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>接下来（para1）*骰子点数回合内，去除（para2）个骰子槽位。（骰子槽位降低及减少一个可用槽，摇骰子时也不计入，且最多降低至1）</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>20</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>CardIn_Draw_DiceSpaceCount</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>放入骰子槽时，抽取（（para1）-可用骰子槽位数量）的卡牌</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>21</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>CradPick_DicePosDown_DiceSpace</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>玩家指定一张手牌，降低其骰位，降低数值为当前不可用骰子槽数量</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>22</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>DiceSpace_None_SanChange</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>若生效时没有不可用骰子槽，san值改变（para1）</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>23</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>DicePos_NextTurn_All</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>所有卡牌在下回合骰位变为（para1）</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>24</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>DiceSpace_SanChange</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>每有一个不可用骰子槽，san值改变（para1）</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>25</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>DiceSpace_AlertChange</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>每有一个可用骰子槽，安抚值改变（para1）</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>26</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>IsPeace_SanChange</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>若猫咪拥有安抚值，则san值下降安抚值点数</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>27</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>IsPeaceNone_AlertChange</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>若猫咪没有安抚值，则让其警戒度降低骰子点数数值*（para1）</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>28</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>State_PeaceValueChange</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>增加状态（para1）层数的安抚值</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>29</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>Card_Announce</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>放入骰位槽后，宣言一个骰子点数（出现界面显示6个不同点数骰子，让玩家选择其中1个），记录在该卡牌上</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>30</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>IsAnnounce_SanChange</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>生效时骰子点数若与该卡牌上宣言点数相同，san值改变（para1）</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>31</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>CardIn_PeaceValueChange</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>放入骰子槽时，安抚值改变（para1）</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>32</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>CardIn_DiceFreeze</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>放入骰子槽时，接下来（para1）回合内，骰子点数将固定为该值</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>33</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>CardIn_DicePosChange</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>放入骰子槽时，该卡牌骰位改变（para1）</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>34</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>BetWithCat</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>这张卡生效后，和猫各摇1次骰子
+①若猫的骰子点数更大，则随机销毁你的一张卡牌
+②若你的骰子点数更大，则san值-（para1）*骰子点数值
+③若骰子点数相同，则重新各摇1次骰子</v>
           </cell>
         </row>
       </sheetData>
@@ -1133,7 +1488,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>

--- a/OriginTable/CardEffect.xlsx
+++ b/OriginTable/CardEffect.xlsx
@@ -1488,7 +1488,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>

--- a/OriginTable/CardEffect.xlsx
+++ b/OriginTable/CardEffect.xlsx
@@ -849,6 +849,9 @@
             <v>int</v>
           </cell>
           <cell r="B3" t="str">
+            <v>string</v>
+          </cell>
+          <cell r="C3" t="str">
             <v>string</v>
           </cell>
         </row>
@@ -1485,10 +1488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1600,17 +1603,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="F6" s="2" t="str">
         <f>VLOOKUP(B6,[1]EffectType!$A:$C,3,0)</f>
-        <v>警戒度改变（para1）</v>
+        <v>san值改变（para1）</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1618,17 +1621,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>-50</v>
       </c>
       <c r="F7" s="2" t="str">
         <f>VLOOKUP(B7,[1]EffectType!$A:$C,3,0)</f>
-        <v>警戒度改变（para1）</v>
+        <v>san值改变（para1）</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1642,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="str">
         <f>VLOOKUP(B8,[1]EffectType!$A:$C,3,0)</f>
@@ -1654,17 +1657,464 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>VLOOKUP(B9,[1]EffectType!$A:$C,3,0)</f>
+        <v>san值改变（para1）</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>VLOOKUP(B10,[1]EffectType!$A:$C,3,0)</f>
+        <v>san值改变（para1）</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>VLOOKUP(B11,[1]EffectType!$A:$C,3,0)</f>
+        <v>san值改变（para1）</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f>VLOOKUP(B12,[1]EffectType!$A:$C,3,0)</f>
+        <v>san值改变（para1）</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>80</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f>VLOOKUP(B13,[1]EffectType!$A:$C,3,0)</f>
+        <v>san值改变（para1）</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f>VLOOKUP(B14,[1]EffectType!$A:$C,3,0)</f>
+        <v>安抚值改变（para1）</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f>VLOOKUP(B15,[1]EffectType!$A:$C,3,0)</f>
+        <v>安抚值改变（para1）</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f>VLOOKUP(B16,[1]EffectType!$A:$C,3,0)</f>
+        <v>安抚值改变（para1）</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f>VLOOKUP(B17,[1]EffectType!$A:$C,3,0)</f>
+        <v>安抚值改变（para1）</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>99</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f>VLOOKUP(B18,[1]EffectType!$A:$C,3,0)</f>
+        <v>安抚值改变（para1）</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f>VLOOKUP(B19,[1]EffectType!$A:$C,3,0)</f>
         <v>警戒度改变（para1）</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-25</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f>VLOOKUP(B20,[1]EffectType!$A:$C,3,0)</f>
+        <v>警戒度改变（para1）</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-15</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f>VLOOKUP(B21,[1]EffectType!$A:$C,3,0)</f>
+        <v>警戒度改变（para1）</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-10</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f>VLOOKUP(B22,[1]EffectType!$A:$C,3,0)</f>
+        <v>警戒度改变（para1）</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f>VLOOKUP(B23,[1]EffectType!$A:$C,3,0)</f>
+        <v>警戒度改变（para1）</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>30</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f>VLOOKUP(B24,[1]EffectType!$A:$C,3,0)</f>
+        <v>警戒度改变（para1）</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>50</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f>VLOOKUP(B25,[1]EffectType!$A:$C,3,0)</f>
+        <v>警戒度改变（para1）</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f>VLOOKUP(B26,[1]EffectType!$A:$C,3,0)</f>
+        <v>让猫咪产生（para1）*骰子点数的状态（para2）层数</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f>VLOOKUP(B27,[1]EffectType!$A:$C,3,0)</f>
+        <v>让猫咪产生（para1）*骰子点数的状态（para2）层数</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f>VLOOKUP(B28,[1]EffectType!$A:$C,3,0)</f>
+        <v>让猫咪产生（para1）*骰子点数的状态（para2）层数</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f>VLOOKUP(B29,[1]EffectType!$A:$C,3,0)</f>
+        <v>让猫咪产生（para1）*骰子点数的状态（para2）层数</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f>VLOOKUP(B30,[1]EffectType!$A:$C,3,0)</f>
+        <v>让猫咪产生（para1）*骰子点数的状态（para2）层数</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f>VLOOKUP(B31,[1]EffectType!$A:$C,3,0)</f>
+        <v>让猫咪产生（para1）*骰子点数的状态（para2）层数</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f>VLOOKUP(B32,[1]EffectType!$A:$C,3,0)</f>
+        <v>卡牌放入骰子槽后无法被撤出</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f>VLOOKUP(B33,[1]EffectType!$A:$C,3,0)</f>
+        <v>san值改变（para1）</v>
       </c>
     </row>
   </sheetData>

--- a/OriginTable/CardEffect.xlsx
+++ b/OriginTable/CardEffect.xlsx
@@ -1488,10 +1488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -2117,6 +2117,24 @@
         <v>san值改变（para1）</v>
       </c>
     </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f>VLOOKUP(B34,[1]EffectType!$A:$C,3,0)</f>
+        <v>警戒度改变（para1）</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
